--- a/biology/Zoologie/Alfred_Balachowsky/Alfred_Balachowsky.xlsx
+++ b/biology/Zoologie/Alfred_Balachowsky/Alfred_Balachowsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Serge Balachowsky, né le 15 août 1901 à Korotcha, en Russie, et mort le 24 décembre 1983 à Saint-Mandé, est un entomologiste français d'origine russe.
 </t>
@@ -511,19 +523,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Serge Balachowsky naît le 15 août 1901 à Korotcha, en Russie.
 Il obtient le diplôme d’ingénieur agricole le 6 septembre 1923. Et il devient docteur ès-sciences naturelles (thèse à la Sorbonne) le 3 juin 1932
 Il est naturalisé français, par décret du 25 août 1932.
 Pendant la guerre de 39/40, il est mobilisé le 6 septembre 1939 comme caporal au Laboratoire de recherches bactériologiques et aérologiques de l’armée, au Val-de-Grâce à Paris. Il est démobilisé à Toulouse le 18 juillet 1940.
-Sous l’occupation, pendant la Seconde Guerre mondiale, il est directeur de laboratoire à la Station centrale de Zoologie agricole du Centre national de recherches agronomiques de Versailles et professeur de zoologie et d'entomologie à l’École nationale d'agriculture de Grignon. Recruté en octobre 1942, il fait partie, sous le pseudo « Serge », d'un groupe de résistance rattaché au réseau Prosper-PHYSICIAN du service secret britannique Special Operations Executive[1]. Ce groupe, basé à l'École d'agriculture de Grignon, reçoit courant juin 1943 trois parachutages à Bazemont, à la ferme du Roncey de Guillaume Abgrall. Le 2 juillet, Il est arrêté à son domicile (1, square Sully, à Viroflay). Détenu à Fresnes puis, à partir du 30 novembre 1943, au camp de Royallieu (Compiègne), il est déporté le 19 janvier 1944 au camp de Buchenwald. Transféré au camp de Dora le 1er février 1944, il est ramené à Buchenwald le 1er mai 1944, pour y être affecté au bloc 50, où se fabrique le vaccin contre le typhus exanthématique, sous la responsabilité du médecin Schuler. Il y travaille jusqu'à la libération du camp, le 11 avril 1945. Il est rapatrié le 22 avril 1945. Le 29 janvier 1946, il témoigne au procès de Nuremberg sur les conditions de détention dans les camps de concentration.
+Sous l’occupation, pendant la Seconde Guerre mondiale, il est directeur de laboratoire à la Station centrale de Zoologie agricole du Centre national de recherches agronomiques de Versailles et professeur de zoologie et d'entomologie à l’École nationale d'agriculture de Grignon. Recruté en octobre 1942, il fait partie, sous le pseudo « Serge », d'un groupe de résistance rattaché au réseau Prosper-PHYSICIAN du service secret britannique Special Operations Executive. Ce groupe, basé à l'École d'agriculture de Grignon, reçoit courant juin 1943 trois parachutages à Bazemont, à la ferme du Roncey de Guillaume Abgrall. Le 2 juillet, Il est arrêté à son domicile (1, square Sully, à Viroflay). Détenu à Fresnes puis, à partir du 30 novembre 1943, au camp de Royallieu (Compiègne), il est déporté le 19 janvier 1944 au camp de Buchenwald. Transféré au camp de Dora le 1er février 1944, il est ramené à Buchenwald le 1er mai 1944, pour y être affecté au bloc 50, où se fabrique le vaccin contre le typhus exanthématique, sous la responsabilité du médecin Schuler. Il y travaille jusqu'à la libération du camp, le 11 avril 1945. Il est rapatrié le 22 avril 1945. Le 29 janvier 1946, il témoigne au procès de Nuremberg sur les conditions de détention dans les camps de concentration.
 En 1948, il devient président de la Société entomologique de France.
 Alfred Balachowsky occupe les chaires suivantes au Muséum national d'histoire naturelle :
 Entomologie, de 1962 à 1963. Cette chaire fut alors renommée Entomologie générale et appliquée.
 Entomologie générale et appliquée, de 1963 à 1974.
 En 1964, il permet l'installation de son importante bibliothèque dans le bâtiment du Muséum national d'histoire naturelle de Paris, nouvellement construit au 45 rue Buffon, 75005 Paris pour abriter le Laboratoire d'Entomologie générale et appliquée, bâtiment où elle se trouve depuis.
-Il meurt le 24 décembre 1983 à Saint-Mandé[2]
+Il meurt le 24 décembre 1983 à Saint-Mandé
 </t>
         </is>
       </c>
@@ -552,7 +566,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Son père : Arnold Balachowsky, décédé en 1902.
 Sa mère : Aménaïde Charlotte de Féraudy, née le 1er novembre 1876 à Dinan.
@@ -586,7 +602,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On lui doit l'identification de deux espèces de cochenilles (coccoidea) :
 Rhizopulvinaria grassei (1936),
@@ -618,9 +636,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Coléoptères Scolytides, Collection Faune de France, Volume 50, Paris, Fédération française des Sciences naturelles (éd.), 320 p., 1949, 1997[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Coléoptères Scolytides, Collection Faune de France, Volume 50, Paris, Fédération française des Sciences naturelles (éd.), 320 p., 1949, 1997.</t>
         </is>
       </c>
     </row>
@@ -648,7 +668,9 @@
           <t>Utilisation de son nom</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom a été donné à une espèce de papillon, Gonimbrasia balachowsky, de la famille des Saturniidae. Ce papillon figure sur une émission philatélique du Territoire français des Afars et des Issas de 1976, avec pour valeur faciale 100 f.
 </t>
@@ -679,7 +701,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Extrait du témoignage de Balachowsky devant le tribunal de Nuremberg
 (en) Documentaire Lost Airmen of Buchenwald (à partir de la minute 32) : des militaires alliés emprisonnés à Buchenwald témoignent sur Balachowsky.</t>
@@ -710,14 +734,16 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Il est reconnu « Déporté résistant »[4].
- Commandeur de la Légion d'honneur (1947)[5] ;
- Croix de guerre 1939-1945[5] ;
- Médaille de la Résistance française avec rosette par décret du 17 mars 1947[5],[6] ;
- Médaille de la déportation pour faits de Résistance[5] ;
- Croix du combattant volontaire de la Résistance[5].</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Il est reconnu « Déporté résistant ».
+ Commandeur de la Légion d'honneur (1947) ;
+ Croix de guerre 1939-1945 ;
+ Médaille de la Résistance française avec rosette par décret du 17 mars 1947, ;
+ Médaille de la déportation pour faits de Résistance ;
+ Croix du combattant volontaire de la Résistance.</t>
         </is>
       </c>
     </row>
